--- a/SP_Sklad/TempLate/LossesByInventoryAct.xlsx
+++ b/SP_Sklad/TempLate/LossesByInventoryAct.xlsx
@@ -53,9 +53,6 @@
     <t>сума</t>
   </si>
   <si>
-    <t>Нестача</t>
-  </si>
-  <si>
     <t>Період:</t>
   </si>
   <si>
@@ -66,13 +63,16 @@
   </si>
   <si>
     <t>Ціна</t>
+  </si>
+  <si>
+    <t>Нестача / Надлишок</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -165,13 +165,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -599,9 +592,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,6 +648,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,7 +1026,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1053,20 +1046,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
@@ -1084,7 +1077,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
@@ -1129,46 +1122,46 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="30" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="K6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="12" t="s">
         <v>2</v>
       </c>
@@ -1180,12 +1173,12 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>2</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="13"/>
@@ -1195,21 +1188,21 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="e">
+      <c r="B9" s="42" t="e">
         <f>MatGroup_GrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1217,13 +1210,13 @@
         <f>WayBillItems_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="41" t="e">
+      <c r="C10" s="40" t="e">
         <f>WayBillItems_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="7" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1240,7 +1233,7 @@
         <f>WayBillItems_AvgPrice</f>
         <v>#NAME?</v>
       </c>
-      <c r="K10" s="28" t="e">
+      <c r="K10" s="47" t="e">
         <f>WayBillItems_Losses</f>
         <v>#NAME?</v>
       </c>
@@ -1270,13 +1263,13 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="16"/>
       <c r="J12" s="26"/>
       <c r="K12" s="16"/>
@@ -1285,15 +1278,15 @@
     </row>
     <row r="13" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="10"/>
       <c r="J14" s="25"/>
       <c r="K14" s="10"/>
